--- a/Ethiopia Workspace/Code and Control Files/Bruc_AHLE scenario parameters SMALLRUMINANTS.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Bruc_AHLE scenario parameters SMALLRUMINANTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alarkins/Desktop/Meta model/GBADs_cause_frequency/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3BA85B-AEF2-F44E-9911-60E269AD63CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E5B43-F7E4-46BA-9428-0FC96EFCD31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="28940" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,9 +241,6 @@
     <t>rpert(10000, 1, 2, 1.8 )</t>
   </si>
   <si>
-    <t>rtruncnorm(10000,1 3, 1.3, 0.15)</t>
-  </si>
-  <si>
     <t>rtruncnorm(10000, a = 1, b = 3, 1.7, 0.12)</t>
   </si>
   <si>
@@ -998,6 +995,9 @@
   </si>
   <si>
     <t>Infrastructure_per_head</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000,1, 3, 1.3, 0.15)</t>
   </si>
 </sst>
 </file>
@@ -1387,15 +1387,16 @@
   <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="14" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="11" max="14" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1480,12 +1481,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1798,12 +1799,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -1861,16 +1862,16 @@
         <v>72</v>
       </c>
       <c r="G16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" t="s">
         <v>73</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>74</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>75</v>
-      </c>
-      <c r="J16" t="s">
-        <v>76</v>
       </c>
       <c r="K16" t="s">
         <v>69</v>
@@ -1885,2236 +1886,2236 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
       <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
         <v>80</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
         <v>79</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>81</v>
       </c>
-      <c r="G19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
         <v>84</v>
       </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="G20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" t="s">
         <v>88</v>
       </c>
-      <c r="G21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>89</v>
       </c>
-      <c r="N21" t="s">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>96</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>97</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>98</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>99</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>100</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>97</v>
+      </c>
+      <c r="L27" t="s">
+        <v>99</v>
+      </c>
+      <c r="M27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>101</v>
       </c>
-      <c r="G27" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" t="s">
-        <v>101</v>
-      </c>
-      <c r="K27" t="s">
-        <v>98</v>
-      </c>
-      <c r="L27" t="s">
-        <v>100</v>
-      </c>
-      <c r="M27" t="s">
-        <v>99</v>
-      </c>
-      <c r="N27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>103</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>104</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>105</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>106</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>107</v>
       </c>
-      <c r="G28" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" t="s">
-        <v>106</v>
-      </c>
-      <c r="M28" t="s">
-        <v>105</v>
-      </c>
-      <c r="N28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>109</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>111</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>112</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>113</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>114</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>115</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>116</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>117</v>
       </c>
-      <c r="N31" t="s">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" t="s">
         <v>120</v>
       </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>121</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>122</v>
       </c>
-      <c r="I32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" t="s">
-        <v>122</v>
-      </c>
-      <c r="K32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" t="s">
-        <v>79</v>
-      </c>
-      <c r="N32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>123</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s">
         <v>124</v>
       </c>
-      <c r="C33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>125</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" t="s">
         <v>126</v>
       </c>
-      <c r="I33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>127</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>128</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>129</v>
       </c>
-      <c r="N33" t="s">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>131</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s">
         <v>132</v>
       </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>133</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" t="s">
+        <v>133</v>
+      </c>
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" t="s">
+        <v>78</v>
+      </c>
+      <c r="N34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>134</v>
       </c>
-      <c r="I34" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" t="s">
-        <v>134</v>
-      </c>
-      <c r="K34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L34" t="s">
-        <v>79</v>
-      </c>
-      <c r="M34" t="s">
-        <v>79</v>
-      </c>
-      <c r="N34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>136</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>137</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" t="s">
         <v>138</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>138</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" t="s">
+        <v>137</v>
+      </c>
+      <c r="L37" t="s">
+        <v>138</v>
+      </c>
+      <c r="M37" t="s">
+        <v>137</v>
+      </c>
+      <c r="N37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="F37" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" t="s">
-        <v>138</v>
-      </c>
-      <c r="H37" t="s">
-        <v>138</v>
-      </c>
-      <c r="I37" t="s">
-        <v>139</v>
-      </c>
-      <c r="J37" t="s">
-        <v>139</v>
-      </c>
-      <c r="K37" t="s">
-        <v>138</v>
-      </c>
-      <c r="L37" t="s">
-        <v>139</v>
-      </c>
-      <c r="M37" t="s">
-        <v>138</v>
-      </c>
-      <c r="N37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>140</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>141</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" t="s">
+        <v>141</v>
+      </c>
+      <c r="K38" t="s">
+        <v>141</v>
+      </c>
+      <c r="L38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M38" t="s">
+        <v>141</v>
+      </c>
+      <c r="N38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>142</v>
       </c>
-      <c r="D38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38" t="s">
-        <v>142</v>
-      </c>
-      <c r="J38" t="s">
-        <v>142</v>
-      </c>
-      <c r="K38" t="s">
-        <v>142</v>
-      </c>
-      <c r="L38" t="s">
-        <v>142</v>
-      </c>
-      <c r="M38" t="s">
-        <v>142</v>
-      </c>
-      <c r="N38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>145</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>146</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>147</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>148</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>149</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>150</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>151</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
+        <v>150</v>
+      </c>
+      <c r="J43" t="s">
         <v>152</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
+        <v>146</v>
+      </c>
+      <c r="L43" t="s">
+        <v>148</v>
+      </c>
+      <c r="M43" t="s">
+        <v>147</v>
+      </c>
+      <c r="N43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" t="s">
         <v>151</v>
       </c>
-      <c r="J43" t="s">
-        <v>153</v>
-      </c>
-      <c r="K43" t="s">
-        <v>147</v>
-      </c>
-      <c r="L43" t="s">
-        <v>149</v>
-      </c>
-      <c r="M43" t="s">
-        <v>148</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="I44" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="J44" t="s">
+        <v>152</v>
+      </c>
+      <c r="K44" t="s">
         <v>155</v>
       </c>
-      <c r="C44" t="s">
+      <c r="L44" t="s">
+        <v>157</v>
+      </c>
+      <c r="M44" t="s">
         <v>156</v>
       </c>
-      <c r="D44" t="s">
-        <v>157</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="N44" t="s">
         <v>158</v>
       </c>
-      <c r="F44" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" t="s">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>160</v>
       </c>
-      <c r="H44" t="s">
-        <v>152</v>
-      </c>
-      <c r="I44" t="s">
-        <v>151</v>
-      </c>
-      <c r="J44" t="s">
-        <v>153</v>
-      </c>
-      <c r="K44" t="s">
-        <v>156</v>
-      </c>
-      <c r="L44" t="s">
-        <v>158</v>
-      </c>
-      <c r="M44" t="s">
-        <v>157</v>
-      </c>
-      <c r="N44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>161</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>162</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>163</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>164</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>165</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>166</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>167</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
+        <v>164</v>
+      </c>
+      <c r="J45" t="s">
         <v>168</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
+        <v>162</v>
+      </c>
+      <c r="L45" t="s">
+        <v>164</v>
+      </c>
+      <c r="M45" t="s">
+        <v>163</v>
+      </c>
+      <c r="N45" t="s">
         <v>165</v>
       </c>
-      <c r="J45" t="s">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>169</v>
       </c>
-      <c r="K45" t="s">
-        <v>163</v>
-      </c>
-      <c r="L45" t="s">
-        <v>165</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" t="s">
         <v>164</v>
       </c>
-      <c r="N45" t="s">
+      <c r="F46" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="H46" t="s">
+        <v>167</v>
+      </c>
+      <c r="I46" t="s">
+        <v>164</v>
+      </c>
+      <c r="J46" t="s">
+        <v>168</v>
+      </c>
+      <c r="K46" t="s">
         <v>171</v>
       </c>
-      <c r="C46" t="s">
+      <c r="L46" t="s">
+        <v>164</v>
+      </c>
+      <c r="M46" t="s">
         <v>172</v>
       </c>
-      <c r="D46" t="s">
+      <c r="N46" t="s">
         <v>173</v>
       </c>
-      <c r="E46" t="s">
-        <v>165</v>
-      </c>
-      <c r="F46" t="s">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>174</v>
       </c>
-      <c r="G46" t="s">
-        <v>167</v>
-      </c>
-      <c r="H46" t="s">
-        <v>168</v>
-      </c>
-      <c r="I46" t="s">
-        <v>165</v>
-      </c>
-      <c r="J46" t="s">
-        <v>169</v>
-      </c>
-      <c r="K46" t="s">
-        <v>172</v>
-      </c>
-      <c r="L46" t="s">
-        <v>165</v>
-      </c>
-      <c r="M46" t="s">
-        <v>173</v>
-      </c>
-      <c r="N46" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>175</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>176</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>177</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>178</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>179</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>180</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>181</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
+        <v>178</v>
+      </c>
+      <c r="J47" t="s">
+        <v>181</v>
+      </c>
+      <c r="K47" t="s">
+        <v>176</v>
+      </c>
+      <c r="L47" t="s">
+        <v>178</v>
+      </c>
+      <c r="M47" t="s">
+        <v>177</v>
+      </c>
+      <c r="N47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>182</v>
       </c>
-      <c r="I47" t="s">
-        <v>179</v>
-      </c>
-      <c r="J47" t="s">
-        <v>182</v>
-      </c>
-      <c r="K47" t="s">
-        <v>177</v>
-      </c>
-      <c r="L47" t="s">
-        <v>179</v>
-      </c>
-      <c r="M47" t="s">
-        <v>178</v>
-      </c>
-      <c r="N47" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
         <v>183</v>
       </c>
-      <c r="B48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>184</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>185</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>186</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
+        <v>185</v>
+      </c>
+      <c r="H48" t="s">
         <v>187</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
+        <v>185</v>
+      </c>
+      <c r="J48" t="s">
+        <v>181</v>
+      </c>
+      <c r="K48" t="s">
+        <v>183</v>
+      </c>
+      <c r="L48" t="s">
+        <v>185</v>
+      </c>
+      <c r="M48" t="s">
+        <v>184</v>
+      </c>
+      <c r="N48" t="s">
         <v>186</v>
       </c>
-      <c r="H48" t="s">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>188</v>
       </c>
-      <c r="I48" t="s">
-        <v>186</v>
-      </c>
-      <c r="J48" t="s">
-        <v>182</v>
-      </c>
-      <c r="K48" t="s">
-        <v>184</v>
-      </c>
-      <c r="L48" t="s">
-        <v>186</v>
-      </c>
-      <c r="M48" t="s">
-        <v>185</v>
-      </c>
-      <c r="N48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>190</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>191</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" t="s">
+        <v>191</v>
+      </c>
+      <c r="H51" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51" t="s">
+        <v>191</v>
+      </c>
+      <c r="J51" t="s">
+        <v>191</v>
+      </c>
+      <c r="K51" t="s">
+        <v>191</v>
+      </c>
+      <c r="L51" t="s">
+        <v>191</v>
+      </c>
+      <c r="M51" t="s">
+        <v>191</v>
+      </c>
+      <c r="N51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>192</v>
       </c>
-      <c r="D51" t="s">
-        <v>192</v>
-      </c>
-      <c r="E51" t="s">
-        <v>192</v>
-      </c>
-      <c r="F51" t="s">
-        <v>192</v>
-      </c>
-      <c r="G51" t="s">
-        <v>192</v>
-      </c>
-      <c r="H51" t="s">
-        <v>192</v>
-      </c>
-      <c r="I51" t="s">
-        <v>192</v>
-      </c>
-      <c r="J51" t="s">
-        <v>192</v>
-      </c>
-      <c r="K51" t="s">
-        <v>192</v>
-      </c>
-      <c r="L51" t="s">
-        <v>192</v>
-      </c>
-      <c r="M51" t="s">
-        <v>192</v>
-      </c>
-      <c r="N51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
         <v>195</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>196</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>197</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>198</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>199</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>200</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>201</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>202</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>203</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
+        <v>196</v>
+      </c>
+      <c r="L55" t="s">
+        <v>198</v>
+      </c>
+      <c r="M55" t="s">
+        <v>197</v>
+      </c>
+      <c r="N55" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>204</v>
       </c>
-      <c r="K55" t="s">
-        <v>197</v>
-      </c>
-      <c r="L55" t="s">
-        <v>199</v>
-      </c>
-      <c r="M55" t="s">
-        <v>198</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="B56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" t="s">
+        <v>210</v>
+      </c>
+      <c r="H56" t="s">
+        <v>211</v>
+      </c>
+      <c r="I56" t="s">
+        <v>212</v>
+      </c>
+      <c r="J56" t="s">
+        <v>213</v>
+      </c>
+      <c r="K56" t="s">
+        <v>206</v>
+      </c>
+      <c r="L56" t="s">
+        <v>208</v>
+      </c>
+      <c r="M56" t="s">
+        <v>207</v>
+      </c>
+      <c r="N56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" t="s">
+        <v>220</v>
+      </c>
+      <c r="H57" t="s">
+        <v>221</v>
+      </c>
+      <c r="I57" t="s">
+        <v>222</v>
+      </c>
+      <c r="J57" t="s">
+        <v>223</v>
+      </c>
+      <c r="K57" t="s">
+        <v>216</v>
+      </c>
+      <c r="L57" t="s">
+        <v>218</v>
+      </c>
+      <c r="M57" t="s">
+        <v>217</v>
+      </c>
+      <c r="N57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" t="s">
-        <v>208</v>
-      </c>
-      <c r="E56" t="s">
-        <v>209</v>
-      </c>
-      <c r="F56" t="s">
-        <v>210</v>
-      </c>
-      <c r="G56" t="s">
-        <v>211</v>
-      </c>
-      <c r="H56" t="s">
-        <v>212</v>
-      </c>
-      <c r="I56" t="s">
-        <v>213</v>
-      </c>
-      <c r="J56" t="s">
-        <v>214</v>
-      </c>
-      <c r="K56" t="s">
-        <v>207</v>
-      </c>
-      <c r="L56" t="s">
-        <v>209</v>
-      </c>
-      <c r="M56" t="s">
-        <v>208</v>
-      </c>
-      <c r="N56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>215</v>
-      </c>
-      <c r="B57" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" t="s">
-        <v>217</v>
-      </c>
-      <c r="D57" t="s">
-        <v>218</v>
-      </c>
-      <c r="E57" t="s">
-        <v>219</v>
-      </c>
-      <c r="F57" t="s">
-        <v>220</v>
-      </c>
-      <c r="G57" t="s">
-        <v>221</v>
-      </c>
-      <c r="H57" t="s">
-        <v>222</v>
-      </c>
-      <c r="I57" t="s">
-        <v>223</v>
-      </c>
-      <c r="J57" t="s">
-        <v>224</v>
-      </c>
-      <c r="K57" t="s">
-        <v>217</v>
-      </c>
-      <c r="L57" t="s">
-        <v>219</v>
-      </c>
-      <c r="M57" t="s">
-        <v>218</v>
-      </c>
-      <c r="N57" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>225</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="H58" t="s">
+        <v>230</v>
+      </c>
+      <c r="I58" t="s">
+        <v>202</v>
+      </c>
+      <c r="J58" t="s">
+        <v>203</v>
+      </c>
+      <c r="K58" t="s">
         <v>226</v>
       </c>
-      <c r="C58" t="s">
+      <c r="L58" t="s">
+        <v>228</v>
+      </c>
+      <c r="M58" t="s">
         <v>227</v>
       </c>
-      <c r="D58" t="s">
-        <v>228</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="N58" t="s">
         <v>229</v>
       </c>
-      <c r="F58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G58" t="s">
-        <v>201</v>
-      </c>
-      <c r="H58" t="s">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>231</v>
       </c>
-      <c r="I58" t="s">
-        <v>203</v>
-      </c>
-      <c r="J58" t="s">
-        <v>204</v>
-      </c>
-      <c r="K58" t="s">
-        <v>227</v>
-      </c>
-      <c r="L58" t="s">
-        <v>229</v>
-      </c>
-      <c r="M58" t="s">
-        <v>228</v>
-      </c>
-      <c r="N58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>232</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>233</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>234</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>235</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>236</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>237</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>238</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>239</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>240</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
+        <v>233</v>
+      </c>
+      <c r="L59" t="s">
+        <v>235</v>
+      </c>
+      <c r="M59" t="s">
+        <v>234</v>
+      </c>
+      <c r="N59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>241</v>
       </c>
-      <c r="K59" t="s">
-        <v>234</v>
-      </c>
-      <c r="L59" t="s">
-        <v>236</v>
-      </c>
-      <c r="M59" t="s">
-        <v>235</v>
-      </c>
-      <c r="N59" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>242</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>243</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>244</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>245</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>246</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>247</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>248</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>249</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>250</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
+        <v>243</v>
+      </c>
+      <c r="L60" t="s">
+        <v>245</v>
+      </c>
+      <c r="M60" t="s">
+        <v>244</v>
+      </c>
+      <c r="N60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>251</v>
       </c>
-      <c r="K60" t="s">
-        <v>244</v>
-      </c>
-      <c r="L60" t="s">
-        <v>246</v>
-      </c>
-      <c r="M60" t="s">
-        <v>245</v>
-      </c>
-      <c r="N60" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="C63" t="s">
         <v>253</v>
       </c>
-      <c r="C63" t="s">
+      <c r="G63" t="s">
+        <v>253</v>
+      </c>
+      <c r="K63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>254</v>
       </c>
-      <c r="G63" t="s">
-        <v>254</v>
-      </c>
-      <c r="K63" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>257</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>258</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>258</v>
+      </c>
+      <c r="E67" t="s">
+        <v>258</v>
+      </c>
+      <c r="F67" t="s">
+        <v>258</v>
+      </c>
+      <c r="G67" t="s">
+        <v>258</v>
+      </c>
+      <c r="H67" t="s">
+        <v>258</v>
+      </c>
+      <c r="I67" t="s">
+        <v>258</v>
+      </c>
+      <c r="J67" t="s">
+        <v>258</v>
+      </c>
+      <c r="K67" t="s">
+        <v>258</v>
+      </c>
+      <c r="L67" t="s">
+        <v>258</v>
+      </c>
+      <c r="M67" t="s">
+        <v>258</v>
+      </c>
+      <c r="N67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>259</v>
       </c>
-      <c r="D67" t="s">
-        <v>259</v>
-      </c>
-      <c r="E67" t="s">
-        <v>259</v>
-      </c>
-      <c r="F67" t="s">
-        <v>259</v>
-      </c>
-      <c r="G67" t="s">
-        <v>259</v>
-      </c>
-      <c r="H67" t="s">
-        <v>259</v>
-      </c>
-      <c r="I67" t="s">
-        <v>259</v>
-      </c>
-      <c r="J67" t="s">
-        <v>259</v>
-      </c>
-      <c r="K67" t="s">
-        <v>259</v>
-      </c>
-      <c r="L67" t="s">
-        <v>259</v>
-      </c>
-      <c r="M67" t="s">
-        <v>259</v>
-      </c>
-      <c r="N67" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="C68" t="s">
         <v>260</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" t="s">
+        <v>260</v>
+      </c>
+      <c r="G68" t="s">
+        <v>260</v>
+      </c>
+      <c r="H68" t="s">
+        <v>260</v>
+      </c>
+      <c r="I68" t="s">
+        <v>260</v>
+      </c>
+      <c r="J68" t="s">
+        <v>260</v>
+      </c>
+      <c r="K68" t="s">
+        <v>260</v>
+      </c>
+      <c r="L68" t="s">
+        <v>260</v>
+      </c>
+      <c r="M68" t="s">
+        <v>260</v>
+      </c>
+      <c r="N68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>261</v>
       </c>
-      <c r="D68" t="s">
-        <v>261</v>
-      </c>
-      <c r="E68" t="s">
-        <v>261</v>
-      </c>
-      <c r="F68" t="s">
-        <v>261</v>
-      </c>
-      <c r="G68" t="s">
-        <v>261</v>
-      </c>
-      <c r="H68" t="s">
-        <v>261</v>
-      </c>
-      <c r="I68" t="s">
-        <v>261</v>
-      </c>
-      <c r="J68" t="s">
-        <v>261</v>
-      </c>
-      <c r="K68" t="s">
-        <v>261</v>
-      </c>
-      <c r="L68" t="s">
-        <v>261</v>
-      </c>
-      <c r="M68" t="s">
-        <v>261</v>
-      </c>
-      <c r="N68" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" t="s">
         <v>263</v>
       </c>
-      <c r="C71" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>263</v>
+      </c>
+      <c r="F71" t="s">
+        <v>263</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J71" t="s">
+        <v>263</v>
+      </c>
+      <c r="K71" t="s">
+        <v>91</v>
+      </c>
+      <c r="L71" t="s">
+        <v>263</v>
+      </c>
+      <c r="M71" t="s">
+        <v>263</v>
+      </c>
+      <c r="N71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>264</v>
       </c>
-      <c r="E71" t="s">
-        <v>264</v>
-      </c>
-      <c r="F71" t="s">
-        <v>264</v>
-      </c>
-      <c r="G71" t="s">
-        <v>92</v>
-      </c>
-      <c r="H71" t="s">
-        <v>264</v>
-      </c>
-      <c r="I71" t="s">
-        <v>264</v>
-      </c>
-      <c r="J71" t="s">
-        <v>264</v>
-      </c>
-      <c r="K71" t="s">
-        <v>92</v>
-      </c>
-      <c r="L71" t="s">
-        <v>264</v>
-      </c>
-      <c r="M71" t="s">
-        <v>264</v>
-      </c>
-      <c r="N71" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>266</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>267</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>268</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>269</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>268</v>
+      </c>
+      <c r="G74" t="s">
+        <v>267</v>
+      </c>
+      <c r="H74" t="s">
+        <v>268</v>
+      </c>
+      <c r="I74" t="s">
+        <v>269</v>
+      </c>
+      <c r="J74" t="s">
+        <v>268</v>
+      </c>
+      <c r="K74" t="s">
+        <v>267</v>
+      </c>
+      <c r="L74" t="s">
+        <v>269</v>
+      </c>
+      <c r="M74" t="s">
+        <v>268</v>
+      </c>
+      <c r="N74" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>270</v>
       </c>
-      <c r="F74" t="s">
-        <v>269</v>
-      </c>
-      <c r="G74" t="s">
-        <v>268</v>
-      </c>
-      <c r="H74" t="s">
-        <v>269</v>
-      </c>
-      <c r="I74" t="s">
-        <v>270</v>
-      </c>
-      <c r="J74" t="s">
-        <v>269</v>
-      </c>
-      <c r="K74" t="s">
-        <v>268</v>
-      </c>
-      <c r="L74" t="s">
-        <v>270</v>
-      </c>
-      <c r="M74" t="s">
-        <v>269</v>
-      </c>
-      <c r="N74" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>271</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>272</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>273</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>274</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>273</v>
+      </c>
+      <c r="G75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H75" t="s">
+        <v>273</v>
+      </c>
+      <c r="I75" t="s">
+        <v>274</v>
+      </c>
+      <c r="J75" t="s">
+        <v>273</v>
+      </c>
+      <c r="K75" t="s">
+        <v>272</v>
+      </c>
+      <c r="L75" t="s">
+        <v>274</v>
+      </c>
+      <c r="M75" t="s">
+        <v>273</v>
+      </c>
+      <c r="N75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>275</v>
       </c>
-      <c r="F75" t="s">
-        <v>274</v>
-      </c>
-      <c r="G75" t="s">
-        <v>273</v>
-      </c>
-      <c r="H75" t="s">
-        <v>274</v>
-      </c>
-      <c r="I75" t="s">
-        <v>275</v>
-      </c>
-      <c r="J75" t="s">
-        <v>274</v>
-      </c>
-      <c r="K75" t="s">
-        <v>273</v>
-      </c>
-      <c r="L75" t="s">
-        <v>275</v>
-      </c>
-      <c r="M75" t="s">
-        <v>274</v>
-      </c>
-      <c r="N75" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>276</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>277</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>278</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>279</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>278</v>
+      </c>
+      <c r="G76" t="s">
+        <v>277</v>
+      </c>
+      <c r="H76" t="s">
+        <v>278</v>
+      </c>
+      <c r="I76" t="s">
+        <v>279</v>
+      </c>
+      <c r="J76" t="s">
+        <v>278</v>
+      </c>
+      <c r="K76" t="s">
+        <v>277</v>
+      </c>
+      <c r="L76" t="s">
+        <v>279</v>
+      </c>
+      <c r="M76" t="s">
+        <v>278</v>
+      </c>
+      <c r="N76" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>280</v>
       </c>
-      <c r="F76" t="s">
-        <v>279</v>
-      </c>
-      <c r="G76" t="s">
-        <v>278</v>
-      </c>
-      <c r="H76" t="s">
-        <v>279</v>
-      </c>
-      <c r="I76" t="s">
-        <v>280</v>
-      </c>
-      <c r="J76" t="s">
-        <v>279</v>
-      </c>
-      <c r="K76" t="s">
-        <v>278</v>
-      </c>
-      <c r="L76" t="s">
-        <v>280</v>
-      </c>
-      <c r="M76" t="s">
-        <v>279</v>
-      </c>
-      <c r="N76" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="C79" t="s">
+        <v>260</v>
+      </c>
+      <c r="D79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" t="s">
+        <v>260</v>
+      </c>
+      <c r="F79" t="s">
+        <v>260</v>
+      </c>
+      <c r="G79" t="s">
+        <v>260</v>
+      </c>
+      <c r="H79" t="s">
+        <v>260</v>
+      </c>
+      <c r="I79" t="s">
+        <v>260</v>
+      </c>
+      <c r="J79" t="s">
+        <v>260</v>
+      </c>
+      <c r="K79" t="s">
+        <v>260</v>
+      </c>
+      <c r="L79" t="s">
+        <v>260</v>
+      </c>
+      <c r="M79" t="s">
+        <v>260</v>
+      </c>
+      <c r="N79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>282</v>
       </c>
-      <c r="C79" t="s">
-        <v>261</v>
-      </c>
-      <c r="D79" t="s">
-        <v>261</v>
-      </c>
-      <c r="E79" t="s">
-        <v>261</v>
-      </c>
-      <c r="F79" t="s">
-        <v>261</v>
-      </c>
-      <c r="G79" t="s">
-        <v>261</v>
-      </c>
-      <c r="H79" t="s">
-        <v>261</v>
-      </c>
-      <c r="I79" t="s">
-        <v>261</v>
-      </c>
-      <c r="J79" t="s">
-        <v>261</v>
-      </c>
-      <c r="K79" t="s">
-        <v>261</v>
-      </c>
-      <c r="L79" t="s">
-        <v>261</v>
-      </c>
-      <c r="M79" t="s">
-        <v>261</v>
-      </c>
-      <c r="N79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>284</v>
       </c>
-      <c r="B82" t="s">
-        <v>285</v>
-      </c>
       <c r="C82" t="s">
+        <v>285</v>
+      </c>
+      <c r="D82" t="s">
+        <v>285</v>
+      </c>
+      <c r="E82" t="s">
+        <v>285</v>
+      </c>
+      <c r="F82" t="s">
+        <v>285</v>
+      </c>
+      <c r="G82" t="s">
+        <v>285</v>
+      </c>
+      <c r="H82" t="s">
+        <v>285</v>
+      </c>
+      <c r="I82" t="s">
+        <v>285</v>
+      </c>
+      <c r="J82" t="s">
+        <v>285</v>
+      </c>
+      <c r="K82" t="s">
+        <v>285</v>
+      </c>
+      <c r="L82" t="s">
+        <v>285</v>
+      </c>
+      <c r="M82" t="s">
+        <v>285</v>
+      </c>
+      <c r="N82" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>286</v>
       </c>
-      <c r="D82" t="s">
-        <v>286</v>
-      </c>
-      <c r="E82" t="s">
-        <v>286</v>
-      </c>
-      <c r="F82" t="s">
-        <v>286</v>
-      </c>
-      <c r="G82" t="s">
-        <v>286</v>
-      </c>
-      <c r="H82" t="s">
-        <v>286</v>
-      </c>
-      <c r="I82" t="s">
-        <v>286</v>
-      </c>
-      <c r="J82" t="s">
-        <v>286</v>
-      </c>
-      <c r="K82" t="s">
-        <v>286</v>
-      </c>
-      <c r="L82" t="s">
-        <v>286</v>
-      </c>
-      <c r="M82" t="s">
-        <v>286</v>
-      </c>
-      <c r="N82" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" t="s">
+        <v>285</v>
+      </c>
+      <c r="D83" t="s">
+        <v>285</v>
+      </c>
+      <c r="E83" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83" t="s">
+        <v>285</v>
+      </c>
+      <c r="G83" t="s">
+        <v>285</v>
+      </c>
+      <c r="H83" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" t="s">
+        <v>285</v>
+      </c>
+      <c r="J83" t="s">
+        <v>285</v>
+      </c>
+      <c r="K83" t="s">
+        <v>285</v>
+      </c>
+      <c r="L83" t="s">
+        <v>285</v>
+      </c>
+      <c r="M83" t="s">
+        <v>285</v>
+      </c>
+      <c r="N83" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>287</v>
       </c>
-      <c r="B83" t="s">
-        <v>285</v>
-      </c>
-      <c r="C83" t="s">
-        <v>286</v>
-      </c>
-      <c r="D83" t="s">
-        <v>286</v>
-      </c>
-      <c r="E83" t="s">
-        <v>286</v>
-      </c>
-      <c r="F83" t="s">
-        <v>286</v>
-      </c>
-      <c r="G83" t="s">
-        <v>286</v>
-      </c>
-      <c r="H83" t="s">
-        <v>286</v>
-      </c>
-      <c r="I83" t="s">
-        <v>286</v>
-      </c>
-      <c r="J83" t="s">
-        <v>286</v>
-      </c>
-      <c r="K83" t="s">
-        <v>286</v>
-      </c>
-      <c r="L83" t="s">
-        <v>286</v>
-      </c>
-      <c r="M83" t="s">
-        <v>286</v>
-      </c>
-      <c r="N83" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
         <v>288</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>285</v>
+      </c>
+      <c r="D84" t="s">
+        <v>285</v>
+      </c>
+      <c r="E84" t="s">
+        <v>285</v>
+      </c>
+      <c r="F84" t="s">
+        <v>285</v>
+      </c>
+      <c r="G84" t="s">
+        <v>285</v>
+      </c>
+      <c r="H84" t="s">
+        <v>285</v>
+      </c>
+      <c r="I84" t="s">
+        <v>285</v>
+      </c>
+      <c r="J84" t="s">
+        <v>285</v>
+      </c>
+      <c r="K84" t="s">
+        <v>285</v>
+      </c>
+      <c r="L84" t="s">
+        <v>285</v>
+      </c>
+      <c r="M84" t="s">
+        <v>285</v>
+      </c>
+      <c r="N84" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>289</v>
       </c>
-      <c r="C84" t="s">
-        <v>286</v>
-      </c>
-      <c r="D84" t="s">
-        <v>286</v>
-      </c>
-      <c r="E84" t="s">
-        <v>286</v>
-      </c>
-      <c r="F84" t="s">
-        <v>286</v>
-      </c>
-      <c r="G84" t="s">
-        <v>286</v>
-      </c>
-      <c r="H84" t="s">
-        <v>286</v>
-      </c>
-      <c r="I84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J84" t="s">
-        <v>286</v>
-      </c>
-      <c r="K84" t="s">
-        <v>286</v>
-      </c>
-      <c r="L84" t="s">
-        <v>286</v>
-      </c>
-      <c r="M84" t="s">
-        <v>286</v>
-      </c>
-      <c r="N84" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" t="s">
+        <v>285</v>
+      </c>
+      <c r="D85" t="s">
+        <v>285</v>
+      </c>
+      <c r="E85" t="s">
+        <v>285</v>
+      </c>
+      <c r="F85" t="s">
+        <v>285</v>
+      </c>
+      <c r="G85" t="s">
+        <v>285</v>
+      </c>
+      <c r="H85" t="s">
+        <v>285</v>
+      </c>
+      <c r="I85" t="s">
+        <v>285</v>
+      </c>
+      <c r="J85" t="s">
+        <v>285</v>
+      </c>
+      <c r="K85" t="s">
+        <v>285</v>
+      </c>
+      <c r="L85" t="s">
+        <v>285</v>
+      </c>
+      <c r="M85" t="s">
+        <v>285</v>
+      </c>
+      <c r="N85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>290</v>
       </c>
-      <c r="B85" t="s">
-        <v>289</v>
-      </c>
-      <c r="C85" t="s">
-        <v>286</v>
-      </c>
-      <c r="D85" t="s">
-        <v>286</v>
-      </c>
-      <c r="E85" t="s">
-        <v>286</v>
-      </c>
-      <c r="F85" t="s">
-        <v>286</v>
-      </c>
-      <c r="G85" t="s">
-        <v>286</v>
-      </c>
-      <c r="H85" t="s">
-        <v>286</v>
-      </c>
-      <c r="I85" t="s">
-        <v>286</v>
-      </c>
-      <c r="J85" t="s">
-        <v>286</v>
-      </c>
-      <c r="K85" t="s">
-        <v>286</v>
-      </c>
-      <c r="L85" t="s">
-        <v>286</v>
-      </c>
-      <c r="M85" t="s">
-        <v>286</v>
-      </c>
-      <c r="N85" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
         <v>291</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>285</v>
+      </c>
+      <c r="D86" t="s">
+        <v>285</v>
+      </c>
+      <c r="E86" t="s">
+        <v>285</v>
+      </c>
+      <c r="F86" t="s">
+        <v>285</v>
+      </c>
+      <c r="G86" t="s">
+        <v>285</v>
+      </c>
+      <c r="H86" t="s">
+        <v>285</v>
+      </c>
+      <c r="I86" t="s">
+        <v>285</v>
+      </c>
+      <c r="J86" t="s">
+        <v>285</v>
+      </c>
+      <c r="K86" t="s">
+        <v>285</v>
+      </c>
+      <c r="L86" t="s">
+        <v>285</v>
+      </c>
+      <c r="M86" t="s">
+        <v>285</v>
+      </c>
+      <c r="N86" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>292</v>
       </c>
-      <c r="C86" t="s">
-        <v>286</v>
-      </c>
-      <c r="D86" t="s">
-        <v>286</v>
-      </c>
-      <c r="E86" t="s">
-        <v>286</v>
-      </c>
-      <c r="F86" t="s">
-        <v>286</v>
-      </c>
-      <c r="G86" t="s">
-        <v>286</v>
-      </c>
-      <c r="H86" t="s">
-        <v>286</v>
-      </c>
-      <c r="I86" t="s">
-        <v>286</v>
-      </c>
-      <c r="J86" t="s">
-        <v>286</v>
-      </c>
-      <c r="K86" t="s">
-        <v>286</v>
-      </c>
-      <c r="L86" t="s">
-        <v>286</v>
-      </c>
-      <c r="M86" t="s">
-        <v>286</v>
-      </c>
-      <c r="N86" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" t="s">
+        <v>285</v>
+      </c>
+      <c r="D87" t="s">
+        <v>285</v>
+      </c>
+      <c r="E87" t="s">
+        <v>285</v>
+      </c>
+      <c r="F87" t="s">
+        <v>285</v>
+      </c>
+      <c r="G87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H87" t="s">
+        <v>285</v>
+      </c>
+      <c r="I87" t="s">
+        <v>285</v>
+      </c>
+      <c r="J87" t="s">
+        <v>285</v>
+      </c>
+      <c r="K87" t="s">
+        <v>285</v>
+      </c>
+      <c r="L87" t="s">
+        <v>285</v>
+      </c>
+      <c r="M87" t="s">
+        <v>285</v>
+      </c>
+      <c r="N87" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>293</v>
       </c>
-      <c r="B87" t="s">
-        <v>292</v>
-      </c>
-      <c r="C87" t="s">
-        <v>286</v>
-      </c>
-      <c r="D87" t="s">
-        <v>286</v>
-      </c>
-      <c r="E87" t="s">
-        <v>286</v>
-      </c>
-      <c r="F87" t="s">
-        <v>286</v>
-      </c>
-      <c r="G87" t="s">
-        <v>286</v>
-      </c>
-      <c r="H87" t="s">
-        <v>286</v>
-      </c>
-      <c r="I87" t="s">
-        <v>286</v>
-      </c>
-      <c r="J87" t="s">
-        <v>286</v>
-      </c>
-      <c r="K87" t="s">
-        <v>286</v>
-      </c>
-      <c r="L87" t="s">
-        <v>286</v>
-      </c>
-      <c r="M87" t="s">
-        <v>286</v>
-      </c>
-      <c r="N87" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="C91" t="s">
+        <v>253</v>
+      </c>
+      <c r="D91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E91" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s">
+        <v>253</v>
+      </c>
+      <c r="H91" t="s">
+        <v>253</v>
+      </c>
+      <c r="I91" t="s">
+        <v>78</v>
+      </c>
+      <c r="J91" t="s">
+        <v>78</v>
+      </c>
+      <c r="K91" t="s">
+        <v>253</v>
+      </c>
+      <c r="L91" t="s">
+        <v>78</v>
+      </c>
+      <c r="M91" t="s">
+        <v>253</v>
+      </c>
+      <c r="N91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>296</v>
       </c>
-      <c r="C91" t="s">
-        <v>254</v>
-      </c>
-      <c r="D91" t="s">
-        <v>254</v>
-      </c>
-      <c r="E91" t="s">
-        <v>79</v>
-      </c>
-      <c r="F91" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s">
-        <v>254</v>
-      </c>
-      <c r="H91" t="s">
-        <v>254</v>
-      </c>
-      <c r="I91" t="s">
-        <v>79</v>
-      </c>
-      <c r="J91" t="s">
-        <v>79</v>
-      </c>
-      <c r="K91" t="s">
-        <v>254</v>
-      </c>
-      <c r="L91" t="s">
-        <v>79</v>
-      </c>
-      <c r="M91" t="s">
-        <v>254</v>
-      </c>
-      <c r="N91" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="C95" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" t="s">
+        <v>260</v>
+      </c>
+      <c r="E95" t="s">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s">
+        <v>260</v>
+      </c>
+      <c r="H95" t="s">
+        <v>260</v>
+      </c>
+      <c r="I95" t="s">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s">
+        <v>78</v>
+      </c>
+      <c r="K95" t="s">
+        <v>260</v>
+      </c>
+      <c r="L95" t="s">
+        <v>78</v>
+      </c>
+      <c r="M95" t="s">
+        <v>260</v>
+      </c>
+      <c r="N95" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>298</v>
       </c>
-      <c r="C95" t="s">
-        <v>261</v>
-      </c>
-      <c r="D95" t="s">
-        <v>261</v>
-      </c>
-      <c r="E95" t="s">
-        <v>79</v>
-      </c>
-      <c r="F95" t="s">
-        <v>79</v>
-      </c>
-      <c r="G95" t="s">
-        <v>261</v>
-      </c>
-      <c r="H95" t="s">
-        <v>261</v>
-      </c>
-      <c r="I95" t="s">
-        <v>79</v>
-      </c>
-      <c r="J95" t="s">
-        <v>79</v>
-      </c>
-      <c r="K95" t="s">
-        <v>261</v>
-      </c>
-      <c r="L95" t="s">
-        <v>79</v>
-      </c>
-      <c r="M95" t="s">
-        <v>261</v>
-      </c>
-      <c r="N95" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
         <v>300</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>301</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>301</v>
+      </c>
+      <c r="E98" t="s">
+        <v>78</v>
+      </c>
+      <c r="F98" t="s">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s">
+        <v>301</v>
+      </c>
+      <c r="H98" t="s">
+        <v>301</v>
+      </c>
+      <c r="I98" t="s">
+        <v>78</v>
+      </c>
+      <c r="J98" t="s">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s">
+        <v>301</v>
+      </c>
+      <c r="L98" t="s">
+        <v>78</v>
+      </c>
+      <c r="M98" t="s">
+        <v>301</v>
+      </c>
+      <c r="N98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>302</v>
       </c>
-      <c r="D98" t="s">
-        <v>302</v>
-      </c>
-      <c r="E98" t="s">
-        <v>79</v>
-      </c>
-      <c r="F98" t="s">
-        <v>79</v>
-      </c>
-      <c r="G98" t="s">
-        <v>302</v>
-      </c>
-      <c r="H98" t="s">
-        <v>302</v>
-      </c>
-      <c r="I98" t="s">
-        <v>79</v>
-      </c>
-      <c r="J98" t="s">
-        <v>79</v>
-      </c>
-      <c r="K98" t="s">
-        <v>302</v>
-      </c>
-      <c r="L98" t="s">
-        <v>79</v>
-      </c>
-      <c r="M98" t="s">
-        <v>302</v>
-      </c>
-      <c r="N98" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
         <v>306</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>307</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>307</v>
+      </c>
+      <c r="E103" t="s">
+        <v>307</v>
+      </c>
+      <c r="F103" t="s">
+        <v>307</v>
+      </c>
+      <c r="G103" t="s">
+        <v>307</v>
+      </c>
+      <c r="H103" t="s">
+        <v>307</v>
+      </c>
+      <c r="I103" t="s">
+        <v>307</v>
+      </c>
+      <c r="J103" t="s">
+        <v>307</v>
+      </c>
+      <c r="K103" t="s">
+        <v>307</v>
+      </c>
+      <c r="L103" t="s">
+        <v>307</v>
+      </c>
+      <c r="M103" t="s">
+        <v>307</v>
+      </c>
+      <c r="N103" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>308</v>
       </c>
-      <c r="D103" t="s">
-        <v>308</v>
-      </c>
-      <c r="E103" t="s">
-        <v>308</v>
-      </c>
-      <c r="F103" t="s">
-        <v>308</v>
-      </c>
-      <c r="G103" t="s">
-        <v>308</v>
-      </c>
-      <c r="H103" t="s">
-        <v>308</v>
-      </c>
-      <c r="I103" t="s">
-        <v>308</v>
-      </c>
-      <c r="J103" t="s">
-        <v>308</v>
-      </c>
-      <c r="K103" t="s">
-        <v>308</v>
-      </c>
-      <c r="L103" t="s">
-        <v>308</v>
-      </c>
-      <c r="M103" t="s">
-        <v>308</v>
-      </c>
-      <c r="N103" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="C108" t="s">
         <v>312</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>312</v>
+      </c>
+      <c r="E108" t="s">
+        <v>312</v>
+      </c>
+      <c r="F108" t="s">
+        <v>312</v>
+      </c>
+      <c r="G108" t="s">
+        <v>312</v>
+      </c>
+      <c r="H108" t="s">
+        <v>312</v>
+      </c>
+      <c r="I108" t="s">
+        <v>312</v>
+      </c>
+      <c r="J108" t="s">
+        <v>312</v>
+      </c>
+      <c r="K108" t="s">
+        <v>312</v>
+      </c>
+      <c r="L108" t="s">
+        <v>312</v>
+      </c>
+      <c r="M108" t="s">
+        <v>312</v>
+      </c>
+      <c r="N108" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>313</v>
       </c>
-      <c r="D108" t="s">
-        <v>313</v>
-      </c>
-      <c r="E108" t="s">
-        <v>313</v>
-      </c>
-      <c r="F108" t="s">
-        <v>313</v>
-      </c>
-      <c r="G108" t="s">
-        <v>313</v>
-      </c>
-      <c r="H108" t="s">
-        <v>313</v>
-      </c>
-      <c r="I108" t="s">
-        <v>313</v>
-      </c>
-      <c r="J108" t="s">
-        <v>313</v>
-      </c>
-      <c r="K108" t="s">
-        <v>313</v>
-      </c>
-      <c r="L108" t="s">
-        <v>313</v>
-      </c>
-      <c r="M108" t="s">
-        <v>313</v>
-      </c>
-      <c r="N108" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="C109" t="s">
         <v>314</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>314</v>
+      </c>
+      <c r="E109" t="s">
+        <v>314</v>
+      </c>
+      <c r="F109" t="s">
+        <v>314</v>
+      </c>
+      <c r="G109" t="s">
+        <v>258</v>
+      </c>
+      <c r="H109" t="s">
+        <v>258</v>
+      </c>
+      <c r="I109" t="s">
+        <v>258</v>
+      </c>
+      <c r="J109" t="s">
+        <v>258</v>
+      </c>
+      <c r="K109" t="s">
+        <v>314</v>
+      </c>
+      <c r="L109" t="s">
+        <v>314</v>
+      </c>
+      <c r="M109" t="s">
+        <v>314</v>
+      </c>
+      <c r="N109" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>315</v>
       </c>
-      <c r="D109" t="s">
-        <v>315</v>
-      </c>
-      <c r="E109" t="s">
-        <v>315</v>
-      </c>
-      <c r="F109" t="s">
-        <v>315</v>
-      </c>
-      <c r="G109" t="s">
-        <v>259</v>
-      </c>
-      <c r="H109" t="s">
-        <v>259</v>
-      </c>
-      <c r="I109" t="s">
-        <v>259</v>
-      </c>
-      <c r="J109" t="s">
-        <v>259</v>
-      </c>
-      <c r="K109" t="s">
-        <v>315</v>
-      </c>
-      <c r="L109" t="s">
-        <v>315</v>
-      </c>
-      <c r="M109" t="s">
-        <v>315</v>
-      </c>
-      <c r="N109" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
         <v>319</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>78</v>
+      </c>
+      <c r="D115" t="s">
+        <v>78</v>
+      </c>
+      <c r="E115" t="s">
+        <v>78</v>
+      </c>
+      <c r="F115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G115" t="s">
         <v>320</v>
       </c>
-      <c r="C115" t="s">
-        <v>79</v>
-      </c>
-      <c r="D115" t="s">
-        <v>79</v>
-      </c>
-      <c r="E115" t="s">
-        <v>79</v>
-      </c>
-      <c r="F115" t="s">
-        <v>79</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
+        <v>320</v>
+      </c>
+      <c r="I115" t="s">
+        <v>320</v>
+      </c>
+      <c r="J115" t="s">
+        <v>320</v>
+      </c>
+      <c r="K115" t="s">
+        <v>78</v>
+      </c>
+      <c r="L115" t="s">
+        <v>78</v>
+      </c>
+      <c r="M115" t="s">
+        <v>78</v>
+      </c>
+      <c r="N115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>321</v>
       </c>
-      <c r="H115" t="s">
-        <v>321</v>
-      </c>
-      <c r="I115" t="s">
-        <v>321</v>
-      </c>
-      <c r="J115" t="s">
-        <v>321</v>
-      </c>
-      <c r="K115" t="s">
-        <v>79</v>
-      </c>
-      <c r="L115" t="s">
-        <v>79</v>
-      </c>
-      <c r="M115" t="s">
-        <v>79</v>
-      </c>
-      <c r="N115" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="C119" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" t="s">
+        <v>78</v>
+      </c>
+      <c r="F119" t="s">
+        <v>78</v>
+      </c>
+      <c r="G119" t="s">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s">
+        <v>78</v>
+      </c>
+      <c r="I119" t="s">
+        <v>78</v>
+      </c>
+      <c r="J119" t="s">
+        <v>78</v>
+      </c>
+      <c r="K119" t="s">
+        <v>78</v>
+      </c>
+      <c r="L119" t="s">
+        <v>78</v>
+      </c>
+      <c r="M119" t="s">
+        <v>78</v>
+      </c>
+      <c r="N119" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>324</v>
       </c>
-      <c r="C119" t="s">
-        <v>79</v>
-      </c>
-      <c r="D119" t="s">
-        <v>79</v>
-      </c>
-      <c r="E119" t="s">
-        <v>79</v>
-      </c>
-      <c r="F119" t="s">
-        <v>79</v>
-      </c>
-      <c r="G119" t="s">
-        <v>79</v>
-      </c>
-      <c r="H119" t="s">
-        <v>79</v>
-      </c>
-      <c r="I119" t="s">
-        <v>79</v>
-      </c>
-      <c r="J119" t="s">
-        <v>79</v>
-      </c>
-      <c r="K119" t="s">
-        <v>79</v>
-      </c>
-      <c r="L119" t="s">
-        <v>79</v>
-      </c>
-      <c r="M119" t="s">
-        <v>79</v>
-      </c>
-      <c r="N119" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>325</v>
-      </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
